--- a/data/trans_bre/P18_5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P18_5_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,37</t>
+          <t>-7,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>-7,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,54</t>
+          <t>22,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,3</t>
+          <t>14,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>20,06</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>-18,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>181,39%</t>
+          <t>-29,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>111,31%</t>
+          <t>270,8%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>157,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>208,21%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 18,89</t>
+          <t>-38,76; 14,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,55; 13,22</t>
+          <t>-47,8; 17,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 25,68</t>
+          <t>7,45; 36,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 18,74</t>
+          <t>-0,28; 31,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-39,14; 114,24</t>
+          <t>0,85; 45,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-68,6; 355,82</t>
+          <t>-70,25; 68,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,09; 597,55</t>
+          <t>-91,51; 508,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 366,79</t>
+          <t>24,81; 1303,26</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-17,82; 757,08</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-25,27; 1536,69</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,96</t>
+          <t>10,51</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,53</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,43%</t>
+          <t>49,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,74%</t>
+          <t>43,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>86,26%</t>
+          <t>29,52%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>32,32%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>51,25%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 16,07</t>
+          <t>0,47; 20,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 7,65</t>
+          <t>-2,43; 10,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 9,5</t>
+          <t>-4,01; 9,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 14,82</t>
+          <t>-11,56; 12,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,16; 85,06</t>
+          <t>-2,08; 13,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 133,92</t>
+          <t>2,9; 126,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 125,49</t>
+          <t>-26,73; 236,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 204,9</t>
+          <t>-30,03; 135,85</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-46,36; 150,63</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-17,2; 187,23</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,41</t>
+          <t>7,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,53%</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>31,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>66,05%</t>
+          <t>-23,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>73,44%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27,89%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>57,1%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 15,01</t>
+          <t>-3,82; 17,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 5,52</t>
+          <t>-8,51; 3,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 14,18</t>
+          <t>-0,72; 15,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 9,26</t>
+          <t>-6,08; 11,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 73,89</t>
+          <t>-2,71; 11,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,68; 101,12</t>
+          <t>-12,34; 98,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 180,59</t>
+          <t>-67,68; 79,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-26,79; 93,1</t>
+          <t>-6,86; 225,96</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-37,89; 142,45</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-21,99; 224,83</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,89</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>72,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>63,27%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 13,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 5,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 11,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 10,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 61,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,33; 87,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,4; 138,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,82; 121,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,83</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,54</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,4</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,18</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>28,03%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-4,59%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>75,25%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>42,53%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>80,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 13,41</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-12,16; 4,39</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,12; 12,26</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 11,1</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,8; 15,46</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-4,31; 64,49</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-59,44; 60,76</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13,89; 151,75</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-15,97; 116,92</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19,28; 203,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P18_5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P18_5_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-7,02</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-7,7</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>22,17</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>14,5</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>20,06</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-18,57%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-29,98%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>270,8%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>157,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>208,21%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-7.018998128558557</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-3.297666260038265</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>21.9861229555556</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>17.72751644158346</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>19.52834621799147</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1856929210482983</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1541179793356788</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>2.714680671256871</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.983675199797745</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>2.045454991415348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-38,76; 14,27</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-47,8; 17,05</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>7,45; 36,39</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,28; 31,27</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 45,74</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-70,25; 68,66</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-91,51; 508,85</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>24,81; 1303,26</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-17,82; 757,08</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-25,27; 1536,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-38.76383503229052</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-41.3659711798003</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>8.128354309333883</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>2.336378208477075</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.7914063307535499</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.7024807154260788</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.8848578687073926</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.2340014077564437</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.06425985534797155</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.231234916618956</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.27140432689066</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.25011406555305</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>36.74388318309955</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>35.77040882528754</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>42.87205558354768</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.6866435863530782</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>6.144264066257572</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>12.69932647234545</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>8.746995992885847</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>14.60315780497673</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>10,51</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,26</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,04</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,66</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,6</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>49,21%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>43,22%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>29,52%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>32,32%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>51,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 20,24</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,43; 10,61</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,01; 9,98</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-11,56; 12,78</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,08; 13,51</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,9; 126,24</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-26,73; 236,27</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-30,03; 135,85</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-46,36; 150,63</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-17,2; 187,23</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>10.50958062764123</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.285093896940532</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.244029004455386</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>4.643710254036925</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>5.527898768837137</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.4921247367548518</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.6345524799520229</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3205951168395775</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.3302043308567945</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.4942794067312092</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,27</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,13</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,57</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,26</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,26</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>31,13%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-23,49%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>73,44%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>27,89%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>57,1%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.473611376694582</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.287388602974385</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.622890979182456</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-9.885822203007843</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-2.332756518097839</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.02898678758481018</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1756445214342438</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.30572727301042</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.4487585394330331</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1713804445969219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,82; 17,18</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,51; 3,84</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,72; 15,43</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,08; 11,13</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-2,71; 11,87</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-12,34; 98,16</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-67,68; 79,49</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-6,86; 225,96</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-37,89; 142,45</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-21,99; 224,83</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>20.23665429440989</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.54630086512124</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.41789191643545</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>12.68493074663443</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>13.35263977073176</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.262435778775831</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.776896334250156</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.494450415406025</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.525281034412047</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.878387604818526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +879,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>7.268252162458139</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.872401889224398</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.623972844157794</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.337032971189971</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>4.85209485449485</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.311294642852713</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.2858148054397415</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.6056576375105627</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2915715265249574</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.5308089352175912</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.818908972584822</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.74558433377647</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.427720358380997</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.795603749389257</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-2.94899451305168</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1233681356187217</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.7472128078920423</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1674760757140145</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.3656376372814829</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.242266668229321</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>17.18300187525829</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.129999388563838</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>14.23962570927003</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>11.16007993275021</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>11.28359900273396</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.9816277719156652</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.5980542950101203</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.017028292119619</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.542588884255495</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>2.102709042622295</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>6,83</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,54</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,4</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,18</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>28,03%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-4,59%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>75,25%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>42,53%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>80,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 13,41</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-12,16; 4,39</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,12; 12,26</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,3; 11,1</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>2,8; 15,46</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-4,31; 64,49</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-59,44; 60,76</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>13,89; 151,75</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-15,97; 116,92</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>19,28; 203,21</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>6.831821485215272</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.4040288410690304</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.264041167025099</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.968375595565746</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>7.916992804371538</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.280295489603389</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.04029589518017358</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.7153734575336425</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.4796424779378139</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.7737921542105178</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.10216429526109</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-9.009862457187404</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.684537656989959</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.742652759798295</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>2.204966683586089</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.04305813295063771</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5246616812631167</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.110225793444325</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1302731634004638</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.1633066603804871</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>13.40791194534957</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.269191869564748</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.97566002020093</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>11.7957317643146</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>14.38731252971296</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.6448693330923752</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.8108666332725115</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.489827912094977</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.27886171264992</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.952313375639758</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
